--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/14/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/14/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>1.7514</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>1751.4</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.75457</v>
+        <v>1.91965</v>
       </c>
       <c r="C5" t="n">
-        <v>2754.57</v>
+        <v>1919.65</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>2.95622</v>
+        <v>1.98016</v>
       </c>
       <c r="C6" t="n">
-        <v>2956.22</v>
+        <v>1980.16</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>3.11534</v>
+        <v>2.02673</v>
       </c>
       <c r="C7" t="n">
-        <v>3115.34</v>
+        <v>2026.73</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>3.24231</v>
+        <v>2.06273</v>
       </c>
       <c r="C8" t="n">
-        <v>3242.31</v>
+        <v>2062.73</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>3.31095</v>
+        <v>2.09377</v>
       </c>
       <c r="C9" t="n">
-        <v>3310.95</v>
+        <v>2093.77</v>
       </c>
     </row>
     <row r="10">
@@ -543,109 +543,109 @@
         <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>3.36187</v>
+        <v>2.12276</v>
       </c>
       <c r="C10" t="n">
-        <v>3361.87</v>
+        <v>2122.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278803</v>
+        <v>0.278804</v>
       </c>
       <c r="B11" t="n">
-        <v>3.3953</v>
+        <v>2.14827</v>
       </c>
       <c r="C11" t="n">
-        <v>3395.3</v>
+        <v>2148.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309728</v>
+        <v>0.309729</v>
       </c>
       <c r="B12" t="n">
-        <v>3.42162</v>
+        <v>2.17271</v>
       </c>
       <c r="C12" t="n">
-        <v>3421.62</v>
+        <v>2172.71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340653</v>
+        <v>0.340654</v>
       </c>
       <c r="B13" t="n">
-        <v>3.44269</v>
+        <v>2.19632</v>
       </c>
       <c r="C13" t="n">
-        <v>3442.69</v>
+        <v>2196.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371578</v>
+        <v>0.371579</v>
       </c>
       <c r="B14" t="n">
-        <v>3.46361</v>
+        <v>2.21755</v>
       </c>
       <c r="C14" t="n">
-        <v>3463.61</v>
+        <v>2217.55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402503</v>
+        <v>0.402504</v>
       </c>
       <c r="B15" t="n">
-        <v>3.48249</v>
+        <v>2.23877</v>
       </c>
       <c r="C15" t="n">
-        <v>3482.49</v>
+        <v>2238.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433428</v>
+        <v>0.433429</v>
       </c>
       <c r="B16" t="n">
-        <v>3.49868</v>
+        <v>2.25913</v>
       </c>
       <c r="C16" t="n">
-        <v>3498.68</v>
+        <v>2259.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464348</v>
+        <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>3.51584</v>
+        <v>2.27842</v>
       </c>
       <c r="C17" t="n">
-        <v>3515.84</v>
+        <v>2278.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495273</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>3.5309</v>
+        <v>2.29691</v>
       </c>
       <c r="C18" t="n">
-        <v>3530.9</v>
+        <v>2296.91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5261980000000001</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>3.54578</v>
+        <v>2.31492</v>
       </c>
       <c r="C19" t="n">
-        <v>3545.78</v>
+        <v>2314.92</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.557124</v>
       </c>
       <c r="B20" t="n">
-        <v>3.56022</v>
+        <v>2.33244</v>
       </c>
       <c r="C20" t="n">
-        <v>3560.22</v>
+        <v>2332.44</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.588049</v>
       </c>
       <c r="B21" t="n">
-        <v>3.57416</v>
+        <v>2.34951</v>
       </c>
       <c r="C21" t="n">
-        <v>3574.16</v>
+        <v>2349.51</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>3.58749</v>
+        <v>2.36615</v>
       </c>
       <c r="C22" t="n">
-        <v>3587.49</v>
+        <v>2366.15</v>
       </c>
     </row>
     <row r="23">
@@ -686,109 +686,109 @@
         <v>0.650268</v>
       </c>
       <c r="B23" t="n">
-        <v>3.60046</v>
+        <v>2.38247</v>
       </c>
       <c r="C23" t="n">
-        <v>3600.46</v>
+        <v>2382.47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68144</v>
+        <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>3.61322</v>
+        <v>2.39841</v>
       </c>
       <c r="C24" t="n">
-        <v>3613.22</v>
+        <v>2398.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126130000000001</v>
+        <v>0.712614</v>
       </c>
       <c r="B25" t="n">
-        <v>3.62568</v>
+        <v>2.41395</v>
       </c>
       <c r="C25" t="n">
-        <v>3625.68</v>
+        <v>2413.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74379</v>
+        <v>0.743791</v>
       </c>
       <c r="B26" t="n">
-        <v>3.63774</v>
+        <v>2.42908</v>
       </c>
       <c r="C26" t="n">
-        <v>3637.74</v>
+        <v>2429.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774962</v>
+        <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>3.64944</v>
+        <v>2.4439</v>
       </c>
       <c r="C27" t="n">
-        <v>3649.44</v>
+        <v>2443.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806135</v>
+        <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>3.6608</v>
+        <v>2.45838</v>
       </c>
       <c r="C28" t="n">
-        <v>3660.8</v>
+        <v>2458.38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8373119999999999</v>
+        <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>3.67186</v>
+        <v>2.4726</v>
       </c>
       <c r="C29" t="n">
-        <v>3671.86</v>
+        <v>2472.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868484</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>3.68265</v>
+        <v>2.48655</v>
       </c>
       <c r="C30" t="n">
-        <v>3682.65</v>
+        <v>2486.55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899657</v>
+        <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>3.69324</v>
+        <v>2.50022</v>
       </c>
       <c r="C31" t="n">
-        <v>3693.24</v>
+        <v>2500.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9308340000000001</v>
+        <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>3.70361</v>
+        <v>2.51365</v>
       </c>
       <c r="C32" t="n">
-        <v>3703.61</v>
+        <v>2513.65</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.9620069999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>3.71377</v>
+        <v>2.52682</v>
       </c>
       <c r="C33" t="n">
-        <v>3713.77</v>
+        <v>2526.82</v>
       </c>
     </row>
     <row r="34">
@@ -807,758 +807,758 @@
         <v>0.993184</v>
       </c>
       <c r="B34" t="n">
-        <v>3.72374</v>
+        <v>2.53973</v>
       </c>
       <c r="C34" t="n">
-        <v>3723.74</v>
+        <v>2539.73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02449</v>
+        <v>1.02422</v>
       </c>
       <c r="B35" t="n">
-        <v>3.73357</v>
+        <v>2.55245</v>
       </c>
       <c r="C35" t="n">
-        <v>3733.57</v>
+        <v>2552.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05587</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>3.74318</v>
+        <v>2.56493</v>
       </c>
       <c r="C36" t="n">
-        <v>3743.18</v>
+        <v>2564.93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08698</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>3.75262</v>
+        <v>2.57722</v>
       </c>
       <c r="C37" t="n">
-        <v>3752.62</v>
+        <v>2577.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11795</v>
+        <v>1.11713</v>
       </c>
       <c r="B38" t="n">
-        <v>3.7619</v>
+        <v>2.5893</v>
       </c>
       <c r="C38" t="n">
-        <v>3761.9</v>
+        <v>2589.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14892</v>
+        <v>1.14809</v>
       </c>
       <c r="B39" t="n">
-        <v>3.77101</v>
+        <v>2.60117</v>
       </c>
       <c r="C39" t="n">
-        <v>3771.01</v>
+        <v>2601.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17989</v>
+        <v>1.17906</v>
       </c>
       <c r="B40" t="n">
-        <v>3.77998</v>
+        <v>2.61288</v>
       </c>
       <c r="C40" t="n">
-        <v>3779.98</v>
+        <v>2612.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21085</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>3.78878</v>
+        <v>2.62444</v>
       </c>
       <c r="C41" t="n">
-        <v>3788.78</v>
+        <v>2624.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24182</v>
+        <v>1.24099</v>
       </c>
       <c r="B42" t="n">
-        <v>3.79747</v>
+        <v>2.63578</v>
       </c>
       <c r="C42" t="n">
-        <v>3797.47</v>
+        <v>2635.78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27279</v>
+        <v>1.27196</v>
       </c>
       <c r="B43" t="n">
-        <v>3.80599</v>
+        <v>2.64695</v>
       </c>
       <c r="C43" t="n">
-        <v>3805.99</v>
+        <v>2646.95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30375</v>
+        <v>1.30293</v>
       </c>
       <c r="B44" t="n">
-        <v>3.81442</v>
+        <v>2.65796</v>
       </c>
       <c r="C44" t="n">
-        <v>3814.42</v>
+        <v>2657.96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33473</v>
+        <v>1.3339</v>
       </c>
       <c r="B45" t="n">
-        <v>3.82271</v>
+        <v>2.66884</v>
       </c>
       <c r="C45" t="n">
-        <v>3822.71</v>
+        <v>2668.84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36569</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>3.83087</v>
+        <v>2.67958</v>
       </c>
       <c r="C46" t="n">
-        <v>3830.87</v>
+        <v>2679.58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39666</v>
+        <v>1.39583</v>
       </c>
       <c r="B47" t="n">
-        <v>3.8389</v>
+        <v>2.69016</v>
       </c>
       <c r="C47" t="n">
-        <v>3838.9</v>
+        <v>2690.16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42763</v>
+        <v>1.4268</v>
       </c>
       <c r="B48" t="n">
-        <v>3.84682</v>
+        <v>2.70057</v>
       </c>
       <c r="C48" t="n">
-        <v>3846.82</v>
+        <v>2700.57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45859</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>3.85461</v>
+        <v>2.71086</v>
       </c>
       <c r="C49" t="n">
-        <v>3854.61</v>
+        <v>2710.86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48956</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>3.86225</v>
+        <v>2.72101</v>
       </c>
       <c r="C50" t="n">
-        <v>3862.25</v>
+        <v>2721.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52053</v>
+        <v>1.51971</v>
       </c>
       <c r="B51" t="n">
-        <v>3.86981</v>
+        <v>2.73104</v>
       </c>
       <c r="C51" t="n">
-        <v>3869.81</v>
+        <v>2731.04</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.5515</v>
+        <v>1.55067</v>
       </c>
       <c r="B52" t="n">
-        <v>3.87725</v>
+        <v>2.74094</v>
       </c>
       <c r="C52" t="n">
-        <v>3877.25</v>
+        <v>2740.94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58246</v>
+        <v>1.58164</v>
       </c>
       <c r="B53" t="n">
-        <v>3.8846</v>
+        <v>2.75073</v>
       </c>
       <c r="C53" t="n">
-        <v>3884.6</v>
+        <v>2750.73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61343</v>
+        <v>1.61261</v>
       </c>
       <c r="B54" t="n">
-        <v>3.89186</v>
+        <v>2.76038</v>
       </c>
       <c r="C54" t="n">
-        <v>3891.86</v>
+        <v>2760.38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6444</v>
+        <v>1.64358</v>
       </c>
       <c r="B55" t="n">
-        <v>3.89901</v>
+        <v>2.7699</v>
       </c>
       <c r="C55" t="n">
-        <v>3899.01</v>
+        <v>2769.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67537</v>
+        <v>1.67455</v>
       </c>
       <c r="B56" t="n">
-        <v>3.90609</v>
+        <v>2.77935</v>
       </c>
       <c r="C56" t="n">
-        <v>3906.09</v>
+        <v>2779.35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70634</v>
+        <v>1.70551</v>
       </c>
       <c r="B57" t="n">
-        <v>3.91304</v>
+        <v>2.78866</v>
       </c>
       <c r="C57" t="n">
-        <v>3913.04</v>
+        <v>2788.66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.737</v>
+        <v>1.73648</v>
       </c>
       <c r="B58" t="n">
-        <v>3.91993</v>
+        <v>2.79784</v>
       </c>
       <c r="C58" t="n">
-        <v>3919.93</v>
+        <v>2797.84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76756</v>
+        <v>1.76745</v>
       </c>
       <c r="B59" t="n">
-        <v>3.92672</v>
+        <v>2.80696</v>
       </c>
       <c r="C59" t="n">
-        <v>3926.72</v>
+        <v>2806.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79811</v>
+        <v>1.79842</v>
       </c>
       <c r="B60" t="n">
-        <v>3.93343</v>
+        <v>2.81595</v>
       </c>
       <c r="C60" t="n">
-        <v>3933.43</v>
+        <v>2815.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82867</v>
+        <v>1.82938</v>
       </c>
       <c r="B61" t="n">
-        <v>3.94008</v>
+        <v>2.82482</v>
       </c>
       <c r="C61" t="n">
-        <v>3940.08</v>
+        <v>2824.82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.85923</v>
+        <v>1.86035</v>
       </c>
       <c r="B62" t="n">
-        <v>3.94665</v>
+        <v>2.83358</v>
       </c>
       <c r="C62" t="n">
-        <v>3946.65</v>
+        <v>2833.58</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.88978</v>
+        <v>1.89132</v>
       </c>
       <c r="B63" t="n">
-        <v>3.95313</v>
+        <v>2.84225</v>
       </c>
       <c r="C63" t="n">
-        <v>3953.13</v>
+        <v>2842.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92034</v>
+        <v>1.92229</v>
       </c>
       <c r="B64" t="n">
-        <v>3.95954</v>
+        <v>2.85079</v>
       </c>
       <c r="C64" t="n">
-        <v>3959.54</v>
+        <v>2850.79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95089</v>
+        <v>1.95325</v>
       </c>
       <c r="B65" t="n">
-        <v>3.96586</v>
+        <v>2.85928</v>
       </c>
       <c r="C65" t="n">
-        <v>3965.86</v>
+        <v>2859.28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98144</v>
+        <v>1.98422</v>
       </c>
       <c r="B66" t="n">
-        <v>3.97212</v>
+        <v>2.86768</v>
       </c>
       <c r="C66" t="n">
-        <v>3972.12</v>
+        <v>2867.68</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01254</v>
+        <v>2.01512</v>
       </c>
       <c r="B67" t="n">
-        <v>3.97842</v>
+        <v>2.87597</v>
       </c>
       <c r="C67" t="n">
-        <v>3978.42</v>
+        <v>2875.97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04411</v>
+        <v>2.04567</v>
       </c>
       <c r="B68" t="n">
-        <v>3.98475</v>
+        <v>2.88421</v>
       </c>
       <c r="C68" t="n">
-        <v>3984.75</v>
+        <v>2884.21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07569</v>
+        <v>2.07623</v>
       </c>
       <c r="B69" t="n">
-        <v>3.991</v>
+        <v>2.89234</v>
       </c>
       <c r="C69" t="n">
-        <v>3991</v>
+        <v>2892.34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10726</v>
+        <v>2.10678</v>
       </c>
       <c r="B70" t="n">
-        <v>3.99718</v>
+        <v>2.90038</v>
       </c>
       <c r="C70" t="n">
-        <v>3997.18</v>
+        <v>2900.38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13883</v>
+        <v>2.13734</v>
       </c>
       <c r="B71" t="n">
-        <v>4.00329</v>
+        <v>2.90835</v>
       </c>
       <c r="C71" t="n">
-        <v>4003.29</v>
+        <v>2908.35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17041</v>
+        <v>2.16789</v>
       </c>
       <c r="B72" t="n">
-        <v>4.00931</v>
+        <v>2.91622</v>
       </c>
       <c r="C72" t="n">
-        <v>4009.31</v>
+        <v>2916.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20198</v>
+        <v>2.19845</v>
       </c>
       <c r="B73" t="n">
-        <v>4.01529</v>
+        <v>2.924</v>
       </c>
       <c r="C73" t="n">
-        <v>4015.29</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23356</v>
+        <v>2.229</v>
       </c>
       <c r="B74" t="n">
-        <v>4.02118</v>
+        <v>2.93175</v>
       </c>
       <c r="C74" t="n">
-        <v>4021.18</v>
+        <v>2931.75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26513</v>
+        <v>2.25956</v>
       </c>
       <c r="B75" t="n">
-        <v>4.027</v>
+        <v>2.93939</v>
       </c>
       <c r="C75" t="n">
-        <v>4027</v>
+        <v>2939.39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2967</v>
+        <v>2.29011</v>
       </c>
       <c r="B76" t="n">
-        <v>4.03277</v>
+        <v>2.94696</v>
       </c>
       <c r="C76" t="n">
-        <v>4032.77</v>
+        <v>2946.96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32827</v>
+        <v>2.32067</v>
       </c>
       <c r="B77" t="n">
-        <v>4.03846</v>
+        <v>2.95448</v>
       </c>
       <c r="C77" t="n">
-        <v>4038.46</v>
+        <v>2954.48</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35985</v>
+        <v>2.35122</v>
       </c>
       <c r="B78" t="n">
-        <v>4.044090000000001</v>
+        <v>2.96189</v>
       </c>
       <c r="C78" t="n">
-        <v>4044.09</v>
+        <v>2961.89</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39142</v>
+        <v>2.38178</v>
       </c>
       <c r="B79" t="n">
-        <v>4.04967</v>
+        <v>2.96928</v>
       </c>
       <c r="C79" t="n">
-        <v>4049.67</v>
+        <v>2969.28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42229</v>
+        <v>2.41233</v>
       </c>
       <c r="B80" t="n">
-        <v>4.05518</v>
+        <v>2.97655</v>
       </c>
       <c r="C80" t="n">
-        <v>4055.18</v>
+        <v>2976.55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45301</v>
+        <v>2.44378</v>
       </c>
       <c r="B81" t="n">
-        <v>4.06062</v>
+        <v>2.98398</v>
       </c>
       <c r="C81" t="n">
-        <v>4060.62</v>
+        <v>2983.98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48373</v>
+        <v>2.47535</v>
       </c>
       <c r="B82" t="n">
-        <v>4.06599</v>
+        <v>2.99139</v>
       </c>
       <c r="C82" t="n">
-        <v>4065.99</v>
+        <v>2991.39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51445</v>
+        <v>2.50692</v>
       </c>
       <c r="B83" t="n">
-        <v>4.07131</v>
+        <v>2.99869</v>
       </c>
       <c r="C83" t="n">
-        <v>4071.31</v>
+        <v>2998.69</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54517</v>
+        <v>2.5385</v>
       </c>
       <c r="B84" t="n">
-        <v>4.07659</v>
+        <v>3.00597</v>
       </c>
       <c r="C84" t="n">
-        <v>4076.59</v>
+        <v>3005.97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57589</v>
+        <v>2.57007</v>
       </c>
       <c r="B85" t="n">
-        <v>4.0818</v>
+        <v>3.01317</v>
       </c>
       <c r="C85" t="n">
-        <v>4081.8</v>
+        <v>3013.17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60661</v>
+        <v>2.60164</v>
       </c>
       <c r="B86" t="n">
-        <v>4.08697</v>
+        <v>3.02026</v>
       </c>
       <c r="C86" t="n">
-        <v>4086.97</v>
+        <v>3020.26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63733</v>
+        <v>2.63322</v>
       </c>
       <c r="B87" t="n">
-        <v>4.092090000000001</v>
+        <v>3.02732</v>
       </c>
       <c r="C87" t="n">
-        <v>4092.09</v>
+        <v>3027.32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66805</v>
+        <v>2.66479</v>
       </c>
       <c r="B88" t="n">
-        <v>4.09717</v>
+        <v>3.03429</v>
       </c>
       <c r="C88" t="n">
-        <v>4097.17</v>
+        <v>3034.29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69877</v>
+        <v>2.69636</v>
       </c>
       <c r="B89" t="n">
-        <v>4.1022</v>
+        <v>3.04118</v>
       </c>
       <c r="C89" t="n">
-        <v>4102.2</v>
+        <v>3041.18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72949</v>
+        <v>2.72794</v>
       </c>
       <c r="B90" t="n">
-        <v>4.10718</v>
+        <v>3.04802</v>
       </c>
       <c r="C90" t="n">
-        <v>4107.18</v>
+        <v>3048.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76021</v>
+        <v>2.75951</v>
       </c>
       <c r="B91" t="n">
-        <v>4.112100000000001</v>
+        <v>3.05476</v>
       </c>
       <c r="C91" t="n">
-        <v>4112.1</v>
+        <v>3054.76</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79093</v>
+        <v>2.79109</v>
       </c>
       <c r="B92" t="n">
-        <v>4.11697</v>
+        <v>3.06148</v>
       </c>
       <c r="C92" t="n">
-        <v>4116.97</v>
+        <v>3061.48</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82165</v>
+        <v>2.82266</v>
       </c>
       <c r="B93" t="n">
-        <v>4.1218</v>
+        <v>3.06811</v>
       </c>
       <c r="C93" t="n">
-        <v>4121.8</v>
+        <v>3068.11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85237</v>
+        <v>2.85423</v>
       </c>
       <c r="B94" t="n">
-        <v>4.12658</v>
+        <v>3.07467</v>
       </c>
       <c r="C94" t="n">
-        <v>4126.58</v>
+        <v>3074.67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88309</v>
+        <v>2.88581</v>
       </c>
       <c r="B95" t="n">
-        <v>4.13132</v>
+        <v>3.0812</v>
       </c>
       <c r="C95" t="n">
-        <v>4131.32</v>
+        <v>3081.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91381</v>
+        <v>2.91738</v>
       </c>
       <c r="B96" t="n">
-        <v>4.136010000000001</v>
+        <v>3.08764</v>
       </c>
       <c r="C96" t="n">
-        <v>4136.01</v>
+        <v>3087.64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94453</v>
+        <v>2.94895</v>
       </c>
       <c r="B97" t="n">
-        <v>4.14067</v>
+        <v>3.09402</v>
       </c>
       <c r="C97" t="n">
-        <v>4140.67</v>
+        <v>3094.02</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97525</v>
+        <v>2.98053</v>
       </c>
       <c r="B98" t="n">
-        <v>4.145270000000001</v>
+        <v>3.10033</v>
       </c>
       <c r="C98" t="n">
-        <v>4145.27</v>
+        <v>3100.33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00597</v>
+        <v>3.0121</v>
       </c>
       <c r="B99" t="n">
-        <v>4.14983</v>
+        <v>3.10659</v>
       </c>
       <c r="C99" t="n">
-        <v>4149.83</v>
+        <v>3106.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03669</v>
+        <v>3.04367</v>
       </c>
       <c r="B100" t="n">
-        <v>4.154350000000001</v>
+        <v>3.11281</v>
       </c>
       <c r="C100" t="n">
-        <v>4154.35</v>
+        <v>3112.81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06741</v>
+        <v>3.07524</v>
       </c>
       <c r="B101" t="n">
-        <v>4.15883</v>
+        <v>3.11894</v>
       </c>
       <c r="C101" t="n">
-        <v>4158.83</v>
+        <v>3118.94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09813</v>
+        <v>3.10682</v>
       </c>
       <c r="B102" t="n">
-        <v>4.16326</v>
+        <v>3.12504</v>
       </c>
       <c r="C102" t="n">
-        <v>4163.26</v>
+        <v>3125.04</v>
       </c>
     </row>
   </sheetData>
